--- a/aohno2/データベース設計書＿大野篤也.xlsx
+++ b/aohno2/データベース設計書＿大野篤也.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voice0083\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voice0083\Desktop\git_aohno2_dailyreport\dailyTrainningReport2021\aohno2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22B8D5-98F8-4D12-A566-57169060C89F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE5F95-8E29-4CDA-92A9-96F06FC33C9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E2DD1848-BE3F-4453-BC24-6F77823A3365}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E2DD1848-BE3F-4453-BC24-6F77823A3365}"/>
   </bookViews>
   <sheets>
     <sheet name="必要機能一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="必要データテーブル一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="diagram図" sheetId="3" r:id="rId3"/>
-    <sheet name="テーブル定義" sheetId="4" r:id="rId4"/>
+    <sheet name="メソッド" sheetId="5" r:id="rId2"/>
+    <sheet name="必要データテーブル一覧" sheetId="2" r:id="rId3"/>
+    <sheet name="diagram図" sheetId="3" r:id="rId4"/>
+    <sheet name="テーブル定義" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
   <si>
     <t>機能分類</t>
     <rPh sb="0" eb="4">
@@ -37,13 +38,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面名</t>
-    <rPh sb="0" eb="3">
-      <t>ガメンメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>機能概要</t>
     <rPh sb="0" eb="4">
       <t>キノウガイヨウ</t>
@@ -55,17 +49,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファンクション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -191,38 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>顧客データの追加（新規登録）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顧客データの削除（退会）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顧客データの編集</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顧客データの閲覧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>書籍データの編集</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>書籍データの閲覧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中間データの編集</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中間データの閲覧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>顧客データ管理</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -243,19 +194,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新しい顧客データを追加する。</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>退会した顧客データを削除する。</t>
     <rPh sb="0" eb="2">
       <t>タイカイ</t>
@@ -361,33 +299,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除→データ一覧へ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集→データ一覧へ</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ一覧</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -790,6 +701,248 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しい顧客データを追加する(新規登録)</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照・表示</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書籍データの新規登録。</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページの表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面の表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データの更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データの削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイ本ページ</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイ本ページの表示</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録ページ表示</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データの保存</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本の新規登録</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本新規登録ページ表示</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録後次ページ遷移（本の新規登録へ）</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録後次ページ遷移（マイ本ページへ）</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン後次ページ遷移（マイ本ページへ）</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -839,7 +992,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,12 +1002,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,12 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1422,196 +1563,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3690105-ED5A-4648-B220-D13FB9FA7BD7}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="22" customWidth="1"/>
-    <col min="4" max="4" width="69.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="3" max="3" width="69.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A9" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -1669,6 +1771,9 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1678,6 +1783,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44A713-AFB6-4CAA-833B-F7AF0DD8950F}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACAB223-F894-47FA-B387-4A517D1B2175}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1695,16 +1960,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1713,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1726,13 +1991,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1741,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1754,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DAA648-7ED4-4130-9BDA-FA6DCA0A10C2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1770,11 +2035,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F0293B-B192-4106-AB78-8D536BBDBD15}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1795,34 +2060,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -1831,28 +2096,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="20">
         <v>1</v>
@@ -1864,29 +2129,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -1895,29 +2160,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -1926,29 +2191,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -1957,29 +2222,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.4">
@@ -1988,29 +2253,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -2019,29 +2284,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -2050,29 +2315,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2081,29 +2346,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -2112,30 +2377,30 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="26">
+        <v>24</v>
+      </c>
+      <c r="J11" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2145,29 +2410,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -2176,29 +2441,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -2207,60 +2472,60 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J14" s="20">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>79</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -2269,30 +2534,30 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="23">
+        <v>25</v>
+      </c>
+      <c r="J16" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2302,28 +2567,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J17" s="20">
         <v>2</v>
@@ -2335,29 +2600,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -2366,29 +2631,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -2397,28 +2662,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="29">
+        <v>86</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="27">
         <v>44381</v>
       </c>
     </row>
@@ -2428,29 +2693,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
